--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="開いたら最初に読んで！" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>最終更新</t>
     <rPh sb="0" eb="4">
@@ -160,16 +160,7 @@
     <t>備考</t>
   </si>
   <si>
-    <t>画面遷移なう</t>
-  </si>
-  <si>
-    <t>とりまできた</t>
-  </si>
-  <si>
     <t>プログラム</t>
-  </si>
-  <si>
-    <t>画面遷移</t>
   </si>
   <si>
     <t>更新日</t>
@@ -199,6 +190,61 @@
   </si>
   <si>
     <t>詳細</t>
+  </si>
+  <si>
+    <t>クラス定義</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西岡</t>
+    <rPh sb="0" eb="2">
+      <t>ニシオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>末吉</t>
+    <rPh sb="0" eb="2">
+      <t>スエヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦田</t>
+    <rPh sb="0" eb="2">
+      <t>ウラタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -975,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,9 +1110,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1183,6 +1226,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,187 +1298,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -1470,7 +1391,49 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFEBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEBFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1507,13 +1470,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1522,13 +1478,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1557,13 +1506,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1872,7 +1814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1884,346 +1826,383 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="60"/>
+      <c r="E2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <f ca="1">NOW()</f>
-        <v>43255.620492824077</v>
+        <v>43255.627858680557</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="67" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="47"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="53"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="53"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="54"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="54"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="53"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="54"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="40"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="41"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="41"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="40"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="41"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="40"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="41"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="40"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="41"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="40"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="41"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="40"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="41"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="41"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="41"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="41"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="40"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="41"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="40"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="41"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="41"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="41"/>
+      <c r="L24" s="40"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="40"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="41"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="C26:D26"/>
@@ -2234,43 +2213,6 @@
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,8 +2225,8 @@
   <dimension ref="B1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2296,38 +2238,38 @@
     <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="29" t="s">
@@ -2360,74 +2302,114 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
-        <v>43007</v>
+        <v>43255.623583564811</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
+      <c r="B7" s="9">
+        <v>43255.623959606484</v>
+      </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="D7" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>36</v>
+      </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
+      <c r="B8" s="9">
+        <v>43255.623959606484</v>
+      </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="D8" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="9">
+        <v>43255.623959606484</v>
+      </c>
       <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="D9" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>38</v>
+      </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="9">
+        <v>43255.623959606484</v>
+      </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="D10" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -2435,11 +2417,11 @@
       <c r="C11" s="22">
         <v>6</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -2447,11 +2429,11 @@
       <c r="C12" s="22">
         <v>7</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -2459,11 +2441,11 @@
       <c r="C13" s="22">
         <v>8</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -2471,11 +2453,11 @@
       <c r="C14" s="22">
         <v>9</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="68"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -2483,35 +2465,35 @@
       <c r="C15" s="22">
         <v>10</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="68"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="22">
         <v>11</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="68"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="32"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="22">
         <v>12</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -2519,23 +2501,23 @@
       <c r="C18" s="22">
         <v>13</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="68"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="22">
         <v>14</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
@@ -2543,23 +2525,23 @@
       <c r="C20" s="22">
         <v>15</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="55"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="22">
         <v>16</v>
       </c>
-      <c r="D21" s="88"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -2567,11 +2549,11 @@
       <c r="C22" s="22">
         <v>17</v>
       </c>
-      <c r="D22" s="88"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -2579,11 +2561,11 @@
       <c r="C23" s="22">
         <v>18</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -2591,11 +2573,11 @@
       <c r="C24" s="22">
         <v>19</v>
       </c>
-      <c r="D24" s="88"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -2603,11 +2585,11 @@
       <c r="C25" s="22">
         <v>20</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -2615,11 +2597,11 @@
       <c r="C26" s="22">
         <v>21</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -2627,11 +2609,11 @@
       <c r="C27" s="22">
         <v>22</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="23"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -2639,11 +2621,11 @@
       <c r="C28" s="22">
         <v>23</v>
       </c>
-      <c r="D28" s="88"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="23"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -2651,11 +2633,11 @@
       <c r="C29" s="22">
         <v>24</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -2663,11 +2645,11 @@
       <c r="C30" s="22">
         <v>25</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
@@ -2675,11 +2657,11 @@
       <c r="C31" s="22">
         <v>26</v>
       </c>
-      <c r="D31" s="88"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="23"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
@@ -2687,11 +2669,11 @@
       <c r="C32" s="22">
         <v>27</v>
       </c>
-      <c r="D32" s="88"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="23"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
@@ -2699,11 +2681,11 @@
       <c r="C33" s="22">
         <v>28</v>
       </c>
-      <c r="D33" s="88"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="23"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -2711,11 +2693,11 @@
       <c r="C34" s="22">
         <v>29</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="23"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -2723,11 +2705,11 @@
       <c r="C35" s="22">
         <v>30</v>
       </c>
-      <c r="D35" s="88"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
@@ -2735,11 +2717,11 @@
       <c r="C36" s="22">
         <v>31</v>
       </c>
-      <c r="D36" s="88"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
@@ -2747,23 +2729,23 @@
       <c r="C37" s="22">
         <v>32</v>
       </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="36"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="22">
         <v>33</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -2771,11 +2753,11 @@
       <c r="C39" s="22">
         <v>34</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -2783,11 +2765,11 @@
       <c r="C40" s="22">
         <v>35</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
@@ -2795,11 +2777,11 @@
       <c r="C41" s="22">
         <v>36</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="13"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
@@ -2807,11 +2789,11 @@
       <c r="C42" s="22">
         <v>37</v>
       </c>
-      <c r="D42" s="66"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="23"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
@@ -2819,11 +2801,11 @@
       <c r="C43" s="22">
         <v>38</v>
       </c>
-      <c r="D43" s="66"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="23"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="64"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
@@ -2831,11 +2813,11 @@
       <c r="C44" s="22">
         <v>39</v>
       </c>
-      <c r="D44" s="66"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="23"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
@@ -2843,11 +2825,11 @@
       <c r="C45" s="22">
         <v>40</v>
       </c>
-      <c r="D45" s="66"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="23"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
@@ -2855,11 +2837,11 @@
       <c r="C46" s="22">
         <v>41</v>
       </c>
-      <c r="D46" s="66"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="23"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
@@ -2867,11 +2849,11 @@
       <c r="C47" s="22">
         <v>42</v>
       </c>
-      <c r="D47" s="66"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="23"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
@@ -2879,11 +2861,11 @@
       <c r="C48" s="22">
         <v>43</v>
       </c>
-      <c r="D48" s="66"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="23"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
@@ -2891,11 +2873,11 @@
       <c r="C49" s="22">
         <v>44</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
@@ -2903,11 +2885,11 @@
       <c r="C50" s="22">
         <v>45</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="23"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
@@ -2915,11 +2897,11 @@
       <c r="C51" s="22">
         <v>46</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
@@ -2927,11 +2909,11 @@
       <c r="C52" s="22">
         <v>47</v>
       </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
@@ -2939,11 +2921,11 @@
       <c r="C53" s="22">
         <v>48</v>
       </c>
-      <c r="D53" s="66"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="23"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
@@ -2951,11 +2933,11 @@
       <c r="C54" s="22">
         <v>49</v>
       </c>
-      <c r="D54" s="66"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="23"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
       <c r="I54" s="10"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
@@ -2963,11 +2945,11 @@
       <c r="C55" s="22">
         <v>50</v>
       </c>
-      <c r="D55" s="66"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="23"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
       <c r="I55" s="10"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
@@ -2975,11 +2957,11 @@
       <c r="C56" s="22">
         <v>51</v>
       </c>
-      <c r="D56" s="66"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="23"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
       <c r="I56" s="10"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
@@ -2987,11 +2969,11 @@
       <c r="C57" s="22">
         <v>52</v>
       </c>
-      <c r="D57" s="66"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="23"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
       <c r="I57" s="10"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
@@ -2999,11 +2981,11 @@
       <c r="C58" s="22">
         <v>53</v>
       </c>
-      <c r="D58" s="66"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="23"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
@@ -3011,11 +2993,11 @@
       <c r="C59" s="22">
         <v>54</v>
       </c>
-      <c r="D59" s="66"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="23"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
       <c r="I59" s="10"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
@@ -3023,11 +3005,11 @@
       <c r="C60" s="22">
         <v>55</v>
       </c>
-      <c r="D60" s="66"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
@@ -3035,11 +3017,11 @@
       <c r="C61" s="22">
         <v>56</v>
       </c>
-      <c r="D61" s="66"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="23"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
       <c r="I61" s="10"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
@@ -3047,16 +3029,16 @@
       <c r="C62" s="22">
         <v>57</v>
       </c>
-      <c r="D62" s="66"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="14"/>
-      <c r="C63" s="63">
+      <c r="C63" s="62">
         <v>58</v>
       </c>
       <c r="D63" s="21"/>
@@ -3082,27 +3064,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:E1048576 E2:E41">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"西岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
-      <formula>"幹雄"</formula>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"浦田"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"末吉"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E52">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"西岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"神武"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"幹雄"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3117,29 +3099,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E63">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"西岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
-      <formula>"幹雄"</formula>
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"浦田"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"末吉"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F46:F1048576 F3:F44">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"提出済"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"提出済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E42">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>"猪俣"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3162,108 +3144,108 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -3290,108 +3272,108 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -3418,13 +3400,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>

--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="開いたら最初に読んで！" sheetId="6" r:id="rId1"/>
-    <sheet name="タスク（全般）" sheetId="1" r:id="rId2"/>
-    <sheet name="変数" sheetId="3" r:id="rId3"/>
-    <sheet name="関数" sheetId="4" r:id="rId4"/>
-    <sheet name="伝言" sheetId="5" r:id="rId5"/>
+    <sheet name="進行中タスク" sheetId="7" r:id="rId2"/>
+    <sheet name="タスクまとめ" sheetId="1" r:id="rId3"/>
+    <sheet name="変数" sheetId="3" r:id="rId4"/>
+    <sheet name="関数" sheetId="4" r:id="rId5"/>
+    <sheet name="伝言" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>最終更新</t>
     <rPh sb="0" eb="4">
@@ -244,6 +245,56 @@
     <rPh sb="0" eb="1">
       <t>オカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動制御</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の作業内容</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Score</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -358,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1015,13 +1066,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1253,62 +1380,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1399,113 +1568,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1835,49 +1897,49 @@
       </c>
       <c r="F2" s="37">
         <f ca="1">NOW()</f>
-        <v>43255.627858680557</v>
+        <v>43255.799953935188</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="66" t="s">
         <v>8</v>
       </c>
@@ -1893,12 +1955,12 @@
     </row>
     <row r="6" spans="2:12" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="55"/>
@@ -1906,12 +1968,12 @@
     </row>
     <row r="7" spans="2:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="52"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="56"/>
@@ -1919,12 +1981,12 @@
     </row>
     <row r="8" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="56"/>
@@ -1932,12 +1994,12 @@
     </row>
     <row r="9" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1945,12 +2007,12 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="52"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1958,12 +2020,12 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="39"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1971,12 +2033,12 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="39"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1984,12 +2046,12 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="39"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1997,12 +2059,12 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2010,12 +2072,12 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2023,12 +2085,12 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2036,12 +2098,12 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2049,12 +2111,12 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2062,12 +2124,12 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2075,12 +2137,12 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="39"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2088,12 +2150,12 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="39"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2101,12 +2163,12 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="39"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2114,12 +2176,12 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="39"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2127,12 +2189,12 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="39"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2140,12 +2202,12 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2153,12 +2215,12 @@
     </row>
     <row r="26" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -2166,43 +2228,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:H21"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="C26:D26"/>
@@ -2213,6 +2238,43 @@
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:H24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2222,11 +2284,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="57.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="107"/>
+    </row>
+    <row r="5" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="106"/>
+    </row>
+    <row r="7" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="106"/>
+    </row>
+    <row r="9" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="106"/>
+    </row>
+    <row r="11" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="106"/>
+    </row>
+    <row r="13" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+    </row>
+    <row r="15" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+    </row>
+    <row r="17" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2243,19 +2443,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -2309,13 +2509,15 @@
       <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="78" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="20">
+        <v>100</v>
+      </c>
       <c r="G6" s="27" t="s">
         <v>26</v>
       </c>
@@ -2337,7 +2539,9 @@
       <c r="E7" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="65">
+        <v>100</v>
+      </c>
       <c r="G7" s="68" t="s">
         <v>26</v>
       </c>
@@ -2359,7 +2563,9 @@
       <c r="E8" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="65"/>
+      <c r="F8" s="65">
+        <v>100</v>
+      </c>
       <c r="G8" s="68" t="s">
         <v>26</v>
       </c>
@@ -2381,7 +2587,9 @@
       <c r="E9" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="65">
+        <v>100</v>
+      </c>
       <c r="G9" s="68" t="s">
         <v>26</v>
       </c>
@@ -2403,7 +2611,9 @@
       <c r="E10" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="65">
+        <v>100</v>
+      </c>
       <c r="G10" s="68" t="s">
         <v>26</v>
       </c>
@@ -2413,15 +2623,23 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="9">
+        <v>43255</v>
+      </c>
       <c r="C11" s="22">
         <v>6</v>
       </c>
-      <c r="D11" s="70"/>
+      <c r="D11" s="70" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" s="33"/>
       <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="G11" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -2433,7 +2651,9 @@
       <c r="E12" s="67"/>
       <c r="F12" s="23"/>
       <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="H12" s="77" t="s">
+        <v>36</v>
+      </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -3064,27 +3284,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:E1048576 E2:E41">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"西岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"浦田"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"末吉"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E52">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"西岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"神武"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"幹雄"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3099,29 +3319,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E63">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"西岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"岡"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"浦田"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"末吉"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F46:F1048576 F3:F44">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"提出済"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"提出済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E42">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"猪俣"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3129,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
@@ -3256,7 +3476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
@@ -3384,7 +3604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F5"/>
   <sheetViews>

--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1601291\Documents\GitHub\TeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1601270\Documents\GitHub\TeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="開いたら最初に読んで！" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>最終更新</t>
     <rPh sb="0" eb="4">
@@ -295,6 +295,19 @@
   </si>
   <si>
     <t>Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラのスクロールの実装のために、移動を追加する。</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1386,6 +1399,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,68 +1465,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1897,43 +1910,43 @@
       </c>
       <c r="F2" s="37">
         <f ca="1">NOW()</f>
-        <v>43255.799953935188</v>
+        <v>43256.410531365742</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80" t="s">
+      <c r="D4" s="94"/>
+      <c r="E4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="81"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
     </row>
     <row r="5" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
@@ -1955,12 +1968,12 @@
     </row>
     <row r="6" spans="2:12" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="55"/>
@@ -1968,8 +1981,8 @@
     </row>
     <row r="7" spans="2:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="52"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="90"/>
       <c r="F7" s="91"/>
       <c r="G7" s="91"/>
@@ -1981,12 +1994,12 @@
     </row>
     <row r="8" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="56"/>
@@ -1994,12 +2007,12 @@
     </row>
     <row r="9" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2007,12 +2020,12 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="52"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2020,12 +2033,12 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="39"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2033,12 +2046,12 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="39"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2046,12 +2059,12 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="39"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2059,12 +2072,12 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2072,12 +2085,12 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2085,12 +2098,12 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2098,12 +2111,12 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2111,12 +2124,12 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2124,12 +2137,12 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2137,12 +2150,12 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="39"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2150,12 +2163,12 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="39"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2163,12 +2176,12 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="39"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2176,12 +2189,12 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="39"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2189,12 +2202,12 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="39"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2202,12 +2215,12 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2217,10 +2230,10 @@
       <c r="B26" s="41"/>
       <c r="C26" s="87"/>
       <c r="D26" s="87"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -2228,6 +2241,43 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="C26:D26"/>
@@ -2238,43 +2288,6 @@
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2286,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2298,104 +2311,106 @@
   <sheetData>
     <row r="2" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="82" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="106" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="107"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="43"/>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="106" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="43"/>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="106" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="83" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="43"/>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="43"/>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="106" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="106"/>
+      <c r="F12" s="83"/>
     </row>
     <row r="13" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="104"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="43"/>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="43"/>
     </row>
   </sheetData>
@@ -2424,9 +2439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2443,19 +2458,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
